--- a/src/main/java/com/NA/TestData/TestData_NA.xlsx
+++ b/src/main/java/com/NA/TestData/TestData_NA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\Test Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C69DD3-02B8-47FC-A67D-67C55E06E7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C041BE-0A1E-498F-B6A8-5D1CE00074C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>Enthusiast in Automation with 3.7 Years of IT experience in Software Testing by the proficiency of 3.1 years in Automation. I have proven myself in delivering results, my main interests in problem-solving. a key anticipator in RCA analysis, and a quick learner.</t>
   </si>
   <si>
-    <t>XXXXX@@@@</t>
-  </si>
-  <si>
-    <t>as@@k@@**3@@@@l.com</t>
-  </si>
-  <si>
-    <t>D\\Preparation_2.0\\Resume\\Ashok Theja B_Selenium with Java Automation_Exp 3.7 Yrs.pdf</t>
+    <t>ashokthejab.3@gmail.com</t>
+  </si>
+  <si>
+    <t>Alpha@889709</t>
+  </si>
+  <si>
+    <t>D:\\D\\Preparation_2.0\\Resume\\Ashok Theja B_Selenium with Java Automation_Exp 3.7 Yrs.pdf</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,11 +546,11 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -572,11 +572,11 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -603,8 +603,12 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{DA4F98DE-1B52-42BB-930D-42A1663FE49B}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{48D40CD8-4CD6-4307-8611-1BAB5037751A}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{4AE67951-637D-45C9-B2B6-48635DD34528}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{C4B552F6-C84A-4633-B97E-69C36534E7CD}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{AE93D3FC-BA93-443E-9417-AB9BF17940F2}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{C1271017-44F1-4D54-B07D-D41338043972}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/main/java/com/NA/TestData/TestData_NA.xlsx
+++ b/src/main/java/com/NA/TestData/TestData_NA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\Test Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A0D67C-0025-49AE-9B6A-761C0D287CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA911634-7461-4646-ACB1-CFC31B568F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>Alpha@889709</t>
   </si>
   <si>
-    <t>D:\\D\\Preparation_2.0\\Resume\\Ashok Theja B_Selenium with Java Automation_Exp 3.8 Yrs.pdf</t>
-  </si>
-  <si>
-    <t>Enthusiast Automation Engineer having 3.8 Years of IT experience in software testing. Proven experience in working on critical projects and deliver on time with the utmost quality. Seeking To work in an environment that gives big job satisfaction.</t>
-  </si>
-  <si>
-    <t>Enthusiast in Automation with 3.8 Years of IT experience in Software Testing by the proficiency of 3.1 years in Automation. I have proven myself in delivering results, my main interest in problem-solving, a key anticipator in RCA analysis, and a quick learner.</t>
+    <t>D:\\D\\Preparation_2.0\\Resume\\Ashok Theja B_Selenium with Java Automation_Exp 3.9 Yrs.pdf</t>
+  </si>
+  <si>
+    <t>Enthusiast in Automation with 3.9 Years of IT experience in Software Testing by the proficiency of 3.1 years in Automation. I have proven myself in delivering results, my main interest in problem-solving, a key anticipator in RCA analysis, and a quick learner.</t>
+  </si>
+  <si>
+    <t>Enthusiast Automation Engineer having 3.9 Years of IT experience in software testing. Proven experience in working on critical projects and deliver on time with the utmost quality. Seeking To work in an environment that gives big job satisfaction.</t>
   </si>
 </sst>
 </file>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">

--- a/src/main/java/com/NA/TestData/TestData_NA.xlsx
+++ b/src/main/java/com/NA/TestData/TestData_NA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\Test Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA911634-7461-4646-ACB1-CFC31B568F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF506927-7DF5-4055-B6C2-BA3C83B8A755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>Alpha@889709</t>
   </si>
   <si>
-    <t>D:\\D\\Preparation_2.0\\Resume\\Ashok Theja B_Selenium with Java Automation_Exp 3.9 Yrs.pdf</t>
-  </si>
-  <si>
-    <t>Enthusiast in Automation with 3.9 Years of IT experience in Software Testing by the proficiency of 3.1 years in Automation. I have proven myself in delivering results, my main interest in problem-solving, a key anticipator in RCA analysis, and a quick learner.</t>
-  </si>
-  <si>
-    <t>Enthusiast Automation Engineer having 3.9 Years of IT experience in software testing. Proven experience in working on critical projects and deliver on time with the utmost quality. Seeking To work in an environment that gives big job satisfaction.</t>
+    <t>D:\\D\\Preparation_2.0\\Resume\\Ashok Theja B_Selenium with Java Automation_Exp 3.10 Yrs.pdf</t>
+  </si>
+  <si>
+    <t>Enthusiast Automation Engineer having 3.10 Years of IT experience in software testing. Proven experience in working on critical projects and deliver on time with the utmost quality. Seeking To work in an environment that gives big job satisfaction.</t>
+  </si>
+  <si>
+    <t>Enthusiast in Automation with 3.10 Years of IT experience in Software Testing by the proficiency of 3.1 years in Automation. I have proven myself in delivering results, my main interest in problem-solving, a key anticipator in RCA analysis, and a quick learner.</t>
   </si>
 </sst>
 </file>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,13 +430,14 @@
     <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="84.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="217.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="208.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="217.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -588,10 +589,10 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
